--- a/Documenti/NC04_Matrice-Tracciabilità.xlsx
+++ b/Documenti/NC04_Matrice-Tracciabilità.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lorenzo\Desktop\UniSa\Lezioni Materiali\Anno 3 - I Semestre\Ingegneria del Software\Team-HILO\Documenti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA50897-9207-494B-9492-D0EE71262457}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{523796D9-DB53-4326-9601-C019188CA5FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="90">
   <si>
     <t>Nome Progetto</t>
   </si>
@@ -187,10 +187,6 @@
  radiografie svolte, una percentuale di probabilità di positività al Covid-19 di un paziente interno</t>
   </si>
   <si>
-    <t>Come paziente interno, il sistema mi assocerà una
- cartella clinica riguardante tutta la mia storia clinica riguardante il contagio da Covid-19</t>
-  </si>
-  <si>
     <t>Il sistema deve mantenere un diario clinico per 
 ogni paziente in quarantena domiciliare nel territorio di competenza della struttura</t>
   </si>
@@ -205,10 +201,6 @@
     <t>RF_10</t>
   </si>
   <si>
-    <t>Come paziente che ha effettuato il tampone, il 
-sistema mi comunicherà l’esito dell’analisi del tampone entro un massimo di dieci minuti dalla terminazione dell’analisi di quest’ultimo</t>
-  </si>
-  <si>
     <t>Il sistema deve essere in grado di tener traccia 
 dello stato di positività/negatività al Covid-19 del personale della struttura</t>
   </si>
@@ -312,6 +304,15 @@
   </si>
   <si>
     <t>Minima</t>
+  </si>
+  <si>
+    <t>Il sistema deve associare ad ogni paziente una cartella clinica riguardante tutta la sua storia clinica relativa al Covid-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Il sistema deve comunicare l'esito dell'analisi di un tampone entro dieci minuti dalla disponibilità del risultato</t>
   </si>
 </sst>
 </file>
@@ -782,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -833,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>5</v>
@@ -862,7 +863,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
@@ -871,7 +872,7 @@
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
@@ -888,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>21</v>
@@ -897,7 +898,7 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -923,7 +924,7 @@
         <v>25</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>30</v>
@@ -932,7 +933,7 @@
         <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
@@ -946,19 +947,19 @@
     </row>
     <row r="7" spans="1:12" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
@@ -984,16 +985,16 @@
         <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="D8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>35</v>
@@ -1010,22 +1011,22 @@
         <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F9" t="s">
         <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L9" t="s">
         <v>24</v>
@@ -1036,16 +1037,16 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -1057,30 +1058,30 @@
         <v>41</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="K10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="L10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -1092,7 +1093,7 @@
         <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -1103,25 +1104,25 @@
     </row>
     <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
       </c>
       <c r="K12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L12" t="s">
         <v>24</v>
@@ -1129,63 +1130,68 @@
     </row>
     <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" t="s">
-        <v>88</v>
-      </c>
-      <c r="F13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" t="s">
+        <v>83</v>
+      </c>
+      <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" t="s">
-        <v>85</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" t="s">
+      <c r="K14" t="s">
         <v>78</v>
-      </c>
-      <c r="J14" t="s">
-        <v>79</v>
-      </c>
-      <c r="K14" t="s">
-        <v>80</v>
       </c>
       <c r="L14" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
